--- a/audio/vocabulary.xlsx
+++ b/audio/vocabulary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>able</t>
   </si>
@@ -161,6 +161,156 @@
   </si>
   <si>
     <t>afterwards</t>
+  </si>
+  <si>
+    <t>1.able</t>
+  </si>
+  <si>
+    <t>2.about</t>
+  </si>
+  <si>
+    <t>3.above</t>
+  </si>
+  <si>
+    <t>4.accept</t>
+  </si>
+  <si>
+    <t>5.accident</t>
+  </si>
+  <si>
+    <t>6.accompany</t>
+  </si>
+  <si>
+    <t>7.action</t>
+  </si>
+  <si>
+    <t>8.actor</t>
+  </si>
+  <si>
+    <t>9.actually</t>
+  </si>
+  <si>
+    <t>10.add</t>
+  </si>
+  <si>
+    <t>11.address</t>
+  </si>
+  <si>
+    <t>12.adjective</t>
+  </si>
+  <si>
+    <t>13.adverb</t>
+  </si>
+  <si>
+    <t>14.advertisement</t>
+  </si>
+  <si>
+    <t>15.afraid</t>
+  </si>
+  <si>
+    <t>16.africa</t>
+  </si>
+  <si>
+    <t>17.after</t>
+  </si>
+  <si>
+    <t>18.afternoon</t>
+  </si>
+  <si>
+    <t>20.again</t>
+  </si>
+  <si>
+    <t>21.against</t>
+  </si>
+  <si>
+    <t>22.agree</t>
+  </si>
+  <si>
+    <t>23.air</t>
+  </si>
+  <si>
+    <t>24.airplane</t>
+  </si>
+  <si>
+    <t>1.co-the</t>
+  </si>
+  <si>
+    <t>2.ve</t>
+  </si>
+  <si>
+    <t>3.tren</t>
+  </si>
+  <si>
+    <t>4.chap-nhan</t>
+  </si>
+  <si>
+    <t>5.tai-nan</t>
+  </si>
+  <si>
+    <t>6.ho-tong</t>
+  </si>
+  <si>
+    <t>7.hanh-dong</t>
+  </si>
+  <si>
+    <t>8.dien-vien</t>
+  </si>
+  <si>
+    <t>9.thuc-su</t>
+  </si>
+  <si>
+    <t>10.cong-them</t>
+  </si>
+  <si>
+    <t>11.dia-chi</t>
+  </si>
+  <si>
+    <t>12.tinh-tu</t>
+  </si>
+  <si>
+    <t>13.trang-tu</t>
+  </si>
+  <si>
+    <t>14.quang-cao</t>
+  </si>
+  <si>
+    <t>15.so</t>
+  </si>
+  <si>
+    <t>16.chau-phi</t>
+  </si>
+  <si>
+    <t>17.ve-sau</t>
+  </si>
+  <si>
+    <t>19.ve-sau</t>
+  </si>
+  <si>
+    <t>18.buoi-chieu</t>
+  </si>
+  <si>
+    <t>19.afterward</t>
+  </si>
+  <si>
+    <t>20.lan-nua</t>
+  </si>
+  <si>
+    <t>21.chong-lai</t>
+  </si>
+  <si>
+    <t>22.dong-y</t>
+  </si>
+  <si>
+    <t>23.khong-khi</t>
+  </si>
+  <si>
+    <t>24.may-bay</t>
+  </si>
+  <si>
+    <t>25.airport</t>
+  </si>
+  <si>
+    <t>25.san-bay</t>
   </si>
 </sst>
 </file>
@@ -502,15 +652,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -520,8 +670,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -531,8 +687,14 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -542,8 +704,14 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -553,8 +721,14 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -564,8 +738,14 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -575,8 +755,14 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -586,8 +772,14 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -597,8 +789,14 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -608,8 +806,14 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -619,8 +823,14 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -630,8 +840,14 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -641,8 +857,14 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -652,8 +874,14 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -663,8 +891,14 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -674,8 +908,14 @@
       <c r="C15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -685,8 +925,14 @@
       <c r="C16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -696,8 +942,14 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -707,8 +959,14 @@
       <c r="C18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -718,8 +976,14 @@
       <c r="C19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -729,8 +993,14 @@
       <c r="C20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -740,8 +1010,14 @@
       <c r="C21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -751,8 +1027,14 @@
       <c r="C22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -762,8 +1044,14 @@
       <c r="C23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -773,8 +1061,14 @@
       <c r="C24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -783,6 +1077,12 @@
       </c>
       <c r="C25" t="s">
         <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/audio/vocabulary.xlsx
+++ b/audio/vocabulary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>able</t>
   </si>
@@ -311,6 +311,21 @@
   </si>
   <si>
     <t>25.san-bay</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>vn</t>
+  </si>
+  <si>
+    <t>url-en</t>
+  </si>
+  <si>
+    <t>url-vi</t>
   </si>
 </sst>
 </file>
@@ -652,436 +667,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>97</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>98</v>
       </c>
     </row>
